--- a/Dataset Final.xlsx
+++ b/Dataset Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/fuoen_lim_mymail_sutd_edu_sg/Documents/University stuff/Term 7 (Xi'An Jiaotong)/Buisness Statistics/Project/Analysis/Tour-de-France-Data-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="8_{1BD1A775-5C65-7142-9FDB-44C7CAFCD46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39E007C-9B13-3446-87BC-E2E0744CDEE9}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{1BD1A775-5C65-7142-9FDB-44C7CAFCD46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBAAFBEE-F44F-1B4A-A0E3-C7FA95EFACD6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20560" windowHeight="24760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
@@ -6843,8 +6843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541E4119-D993-7C45-9FA3-10879138E72C}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
